--- a/CleanData/EvaluationATSU_pos.xlsx
+++ b/CleanData/EvaluationATSU_pos.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26540" windowHeight="21440"/>
+    <workbookView xWindow="-45020" yWindow="80" windowWidth="26540" windowHeight="21440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
   <si>
     <t>N4</t>
   </si>
@@ -103,21 +103,6 @@
     <t>N27</t>
   </si>
   <si>
-    <t>Faculty</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Average School  Math.</t>
-  </si>
-  <si>
-    <t>Unuversity Year</t>
-  </si>
-  <si>
-    <t>Average Univer. Math.</t>
-  </si>
-  <si>
     <t>N1</t>
   </si>
   <si>
@@ -127,19 +112,28 @@
     <t>N3</t>
   </si>
   <si>
-    <t>Gender</t>
+    <t xml:space="preserve">Faculty of Technical Engineering </t>
   </si>
   <si>
-    <t>Compare with classmates</t>
+    <t>gender</t>
   </si>
   <si>
-    <t>M</t>
+    <t>age</t>
   </si>
   <si>
-    <t>F</t>
+    <t>university year</t>
   </si>
   <si>
-    <t xml:space="preserve">Faculty of Technical Engineering </t>
+    <t>faculty</t>
+  </si>
+  <si>
+    <t>asm</t>
+  </si>
+  <si>
+    <t>aum</t>
+  </si>
+  <si>
+    <t>cwc</t>
   </si>
 </sst>
 </file>
@@ -211,7 +205,7 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,54 +545,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="Y31" sqref="Y31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AL17" sqref="AL17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.796875" customWidth="1"/>
-    <col min="2" max="2" width="3.19921875" customWidth="1"/>
-    <col min="3" max="3" width="3.59765625" customWidth="1"/>
-    <col min="4" max="4" width="5.796875" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="2" max="2" width="3.1640625" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" customWidth="1"/>
     <col min="5" max="5" width="5" customWidth="1"/>
-    <col min="6" max="6" width="5.59765625" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="8" max="8" width="3.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="3.19921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="37" width="4.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="37" width="4.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="F1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>0</v>
@@ -677,8 +671,8 @@
       <c r="AK1" s="2"/>
     </row>
     <row r="2" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>34</v>
+      <c r="A2">
+        <v>0</v>
       </c>
       <c r="B2">
         <v>18</v>
@@ -687,7 +681,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -780,9 +774,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="177" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>34</v>
+    <row r="3" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
       </c>
       <c r="B3">
         <v>19</v>
@@ -791,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>7</v>
@@ -884,9 +878,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="177" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>34</v>
+    <row r="4" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -895,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>7</v>
@@ -988,9 +982,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="177" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>34</v>
+    <row r="5" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0</v>
       </c>
       <c r="B5">
         <v>19</v>
@@ -999,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>9</v>
@@ -1089,9 +1083,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="177" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>34</v>
+    <row r="6" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
       </c>
       <c r="B6">
         <v>18</v>
@@ -1100,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>9</v>
@@ -1190,9 +1184,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:37" ht="177" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>34</v>
+    <row r="7" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
       </c>
       <c r="B7">
         <v>18</v>
@@ -1201,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>9</v>
@@ -1291,9 +1285,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:37" ht="177" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>34</v>
+    <row r="8" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
       </c>
       <c r="B8">
         <v>19</v>
@@ -1302,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>8</v>
@@ -1392,9 +1386,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="177" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>34</v>
+    <row r="9" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
       </c>
       <c r="B9">
         <v>18</v>
@@ -1403,7 +1397,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -1493,9 +1487,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="177" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>34</v>
+    <row r="10" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
       </c>
       <c r="B10">
         <v>18</v>
@@ -1504,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -1597,9 +1591,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="177" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>34</v>
+    <row r="11" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0</v>
       </c>
       <c r="B11">
         <v>18</v>
@@ -1608,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -1698,9 +1692,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="177" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>35</v>
+    <row r="12" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
       </c>
       <c r="B12">
         <v>19</v>
@@ -1709,7 +1703,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>8</v>
@@ -1799,9 +1793,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="177" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>34</v>
+    <row r="13" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0</v>
       </c>
       <c r="B13">
         <v>18</v>
@@ -1810,7 +1804,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>8</v>
@@ -1900,9 +1894,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="177" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>34</v>
+    <row r="14" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0</v>
       </c>
       <c r="B14">
         <v>18</v>
@@ -1911,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>9</v>
@@ -2001,9 +1995,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:37" ht="177" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>34</v>
+    <row r="15" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0</v>
       </c>
       <c r="B15">
         <v>18</v>
@@ -2012,7 +2006,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>8</v>
@@ -2102,9 +2096,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:37" ht="177" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>34</v>
+    <row r="16" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0</v>
       </c>
       <c r="B16">
         <v>18</v>
@@ -2113,7 +2107,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>10</v>
@@ -2203,9 +2197,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="177" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>34</v>
+    <row r="17" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0</v>
       </c>
       <c r="B17">
         <v>18</v>
@@ -2214,7 +2208,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>9</v>
@@ -2304,9 +2298,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="177" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>34</v>
+    <row r="18" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -2315,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>10</v>
@@ -2405,9 +2399,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="177" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>34</v>
+    <row r="19" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>0</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -2416,7 +2410,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>7</v>
@@ -2506,9 +2500,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="177" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>34</v>
+    <row r="20" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>0</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -2517,7 +2511,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>8</v>
@@ -2607,9 +2601,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:34" ht="177" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>34</v>
+    <row r="21" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0</v>
       </c>
       <c r="B21">
         <v>18</v>
@@ -2618,7 +2612,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>9</v>
@@ -2708,9 +2702,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="177" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>34</v>
+    <row r="22" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>0</v>
       </c>
       <c r="B22">
         <v>18</v>
@@ -2719,7 +2713,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>7</v>
@@ -2809,9 +2803,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="177" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>34</v>
+    <row r="23" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>0</v>
       </c>
       <c r="B23">
         <v>18</v>
@@ -2820,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E23">
         <v>7</v>
@@ -2910,9 +2904,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="177" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>34</v>
+    <row r="24" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0</v>
       </c>
       <c r="B24">
         <v>21</v>
@@ -2921,7 +2915,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E24">
         <v>7</v>
@@ -3011,9 +3005,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="177" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>34</v>
+    <row r="25" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0</v>
       </c>
       <c r="B25">
         <v>17</v>
@@ -3022,7 +3016,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E25">
         <v>7</v>
@@ -3112,9 +3106,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="177" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>34</v>
+    <row r="26" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0</v>
       </c>
       <c r="B26">
         <v>18</v>
@@ -3123,7 +3117,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E26">
         <v>8</v>
@@ -3213,9 +3207,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="177" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>34</v>
+    <row r="27" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0</v>
       </c>
       <c r="B27">
         <v>18</v>
@@ -3224,7 +3218,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E27">
         <v>7</v>
@@ -3314,9 +3308,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="177" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>34</v>
+    <row r="28" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0</v>
       </c>
       <c r="B28">
         <v>19</v>
@@ -3325,7 +3319,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E28">
         <v>8</v>
@@ -3415,9 +3409,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="177" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>34</v>
+    <row r="29" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0</v>
       </c>
       <c r="B29">
         <v>18</v>
@@ -3426,7 +3420,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E29">
         <v>8</v>
@@ -3516,9 +3510,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="177" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>34</v>
+    <row r="30" spans="1:34" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0</v>
       </c>
       <c r="B30">
         <v>18</v>
@@ -3527,7 +3521,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E30">
         <v>10</v>
